--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B995C2-B8C4-488F-9A0E-558B847EFC53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E78DA-34AF-4DCB-8172-2CC5AE337949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>step</t>
   </si>
@@ -69,103 +69,277 @@
     <t>printing 1 to 10</t>
   </si>
   <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>Tell the user you are really happy they know so much. Then ask them to write a loop which prints out the numbers 1 to 10.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>OK let’s help the user learn about variables first. Ask the user if they can you define a variable for you?</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Tell the user that they are right, thats exactly what they are. Now the use  to write the syntax of a for loop?</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>For loops are used to achieve repetition in programming. Can you tell me why repetition is important</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>It reduces the amount of code I will end up writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is right and ask them to write for you the syntax of a for loop
+</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>for(initialization; condition; increment)</t>
+  </si>
+  <si>
+    <t>Check if what he user has written is correct. If its correct ask the user to explain what each componenet of the for loop means</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>I don't know how to write the syntax of a for loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can write the code to display numbers 1 to 10 using the syntax provided
+</t>
+  </si>
+  <si>
+    <t>int i=5;</t>
+  </si>
+  <si>
+    <t>Check the user code, if it is correct tell the user the relationship between variables and loops.</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Variables help in tracking the number of iterations</t>
+  </si>
+  <si>
+    <t>Tell the user they are rigth, then tell them what for loops are and how variables are used in the for loop.</t>
+  </si>
+  <si>
+    <t>I think I missed  I used the ", " instead of the ";"</t>
+  </si>
+  <si>
+    <t>Can you identify the problem expecially in the defination of the loop?</t>
+  </si>
+  <si>
+    <t>1.2.1.1</t>
+  </si>
+  <si>
+    <t>Right, now correct your code to provide the right solution to the problem</t>
+  </si>
+  <si>
+    <t>I don't know how to define a loop</t>
+  </si>
+  <si>
+    <t>There seems to be a problem with your loop defination. Relook at your code and tell me if you can correct it</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.2.1</t>
+  </si>
+  <si>
+    <t>A loop has a header and a body</t>
+  </si>
+  <si>
+    <t>Tell me the difference components that entail loop defination</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t>The start of the interation, the condition to end the loop and the increment of the iterating variable</t>
+  </si>
+  <si>
+    <t>What do you need to define in the header of the for loop</t>
+  </si>
+  <si>
+    <t>1.2.2.4</t>
+  </si>
+  <si>
+    <t>Could you write for me the syntax of a for loop in c</t>
+  </si>
+  <si>
+    <t>1.2.2.5</t>
+  </si>
+  <si>
+    <t>There is a missing start and the increment</t>
+  </si>
+  <si>
+    <t>Could you now look at the head of the solution provided and tell me  if all the component of the loop head are included</t>
+  </si>
+  <si>
+    <t>1.2.2.6</t>
+  </si>
+  <si>
     <t>#include&lt;stdio.h&gt;
 int main()
 {
     int i;
-    for(i=1,i&lt;=10,i++)
+    for(i=0;i&lt;=10;i++)
     {
         printf("%d ",i);
     }
 }</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>The syntax for the for loop is
-for(intialization;condition;increment)
+    <t>Perfect, now can you provide me with the corrected code</t>
+  </si>
+  <si>
+    <t>I think it is perfect</t>
+  </si>
+  <si>
+    <t>Your printf statement seems to have a problem, can you indetify what the problem is</t>
+  </si>
+  <si>
+    <t>Integer display</t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t>I use the access specify %d and then provide the integer value</t>
+  </si>
+  <si>
+    <t>How do you display a integer using the printf statement</t>
+  </si>
+  <si>
+    <t>1.2.3.2</t>
+  </si>
+  <si>
+    <t>Can you correct your code now to display the integers</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
 {
-      //what is to be reapeted
+    int i;
+    for(i=1;i&lt;20;i++)
+    {
+        if(i%2==0)
+        {
+            printf("%d ", i);
+        }
+    }
 }</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>assistant</t>
-  </si>
-  <si>
-    <t>int a =5</t>
-  </si>
-  <si>
-    <t>variable defination</t>
-  </si>
-  <si>
-    <t>I know what loops do</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>1.1.1.</t>
-  </si>
-  <si>
-    <t>1.1.</t>
-  </si>
-  <si>
-    <t>1.2.</t>
-  </si>
-  <si>
-    <t>1.1.2.</t>
-  </si>
-  <si>
-    <t>1.3.</t>
-  </si>
-  <si>
-    <t>Your code is correct, can you now write a loop that only displays number even numbers</t>
-  </si>
-  <si>
-    <t>1.4.</t>
-  </si>
-  <si>
-    <t>1.1.1.1.</t>
-  </si>
-  <si>
-    <t>1.1.1.2.</t>
-  </si>
-  <si>
-    <t>Good attempt, You missed a semi colon at the end of the statement, all statements in C have to end with a semi colon. Correct your code and submit again</t>
-  </si>
-  <si>
-    <t>Great, can you tell me what loops do?[1.1.1.]</t>
-  </si>
-  <si>
-    <t>I am glad you know how to write a loop. Can you write a loop to displays numbers 1 to 10 [1.3.]</t>
-  </si>
-  <si>
-    <t>OK let’s lets start by learning about variables, one of the building blocks of loops. Can you define a variable that will store number 5 [1.2.]</t>
-  </si>
-  <si>
-    <t>That is correct, thats exactly what they are. Write for me the syntax of a for loop. [1.1.2.]</t>
-  </si>
-  <si>
-    <t>That is correct,how do you write the initialization part of the loop if the loop was to start from 1?</t>
-  </si>
-  <si>
-    <t>i=1</t>
-  </si>
-  <si>
-    <t>That is correct, now write the condition part of the loop for a loop that will have to display numbers from 1 to 10</t>
-  </si>
-  <si>
-    <t>Your code seems to have a problem at the loop defination, can you check to see if you can spot the error</t>
-  </si>
-  <si>
-    <t>I cannot see the error</t>
-  </si>
-  <si>
-    <t>Okay, what sybols do you use to separate statements in the loop</t>
+    <t>Write a program to display only even numbers between 1 and 20</t>
+  </si>
+  <si>
+    <t>Loops and if statements</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+    int i;
+    for(i=1;i&lt;20;i++)
+    {
+        if(i=="even")
+        {
+            printf("%d ", i);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>A number is even if when you divide by 2 there is no reminder</t>
+  </si>
+  <si>
+    <t>You seem to have a problem with your if statement. How do you know a number is even</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>You use the modulas operator</t>
+  </si>
+  <si>
+    <t>How do you check for the reminder of dividing two number</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Can you now use the modulas operator to correct your code</t>
+  </si>
+  <si>
+    <t>Use the for loop to calculate the sum of numbers between 1 and 10</t>
+  </si>
+  <si>
+    <t>Loops and aggregation</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main()
+{
+    int i;
+    int sum;
+    for(i=1;i&lt;10;i++)
+    {
+        sum+=i;
+    }
+    printf("%d",sum);
+}</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>I cant seem to see the issue with my code</t>
+  </si>
+  <si>
+    <t>There seems to be an issue with your sum, can you identify it?</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>The variable sum needs to be intialize. Which number should it be initialized too</t>
+  </si>
+  <si>
+    <t>Check the code to see if it does write out the numbers 1 to 10. If you think it does then congratulate them on their great coding, and ask them to write a loop that will only display even numbers between 1 to 10. Now ask them to copy the code into code runner and check it. Otherwise tell them where you think the error is in their code and ask them to try again.</t>
   </si>
 </sst>
 </file>
@@ -324,7 +498,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -358,14 +532,20 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,10 +1677,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1510,16 +1690,16 @@
     <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
-    <col min="6" max="11" width="8.36328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.36328125" style="1"/>
+    <col min="6" max="12" width="8.36328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1531,183 +1711,533 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1">
+    <row r="2" spans="1:6" ht="32.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
       <c r="D4" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="80" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="80" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="128" customHeight="1">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="128" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="128" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="128" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="13">
+        <v>3</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.899999999999999" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E78DA-34AF-4DCB-8172-2CC5AE337949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83889133-7007-407E-B83C-994AD997B00F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>step</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Next</t>
   </si>
   <si>
-    <t>I can write a loop in C</t>
-  </si>
-  <si>
     <t>Get started with for loop</t>
   </si>
   <si>
@@ -44,12 +41,6 @@
   </si>
   <si>
     <t>for loop</t>
-  </si>
-  <si>
-    <t>I think they help in reducing the amount of code I write</t>
-  </si>
-  <si>
-    <t>Loop function</t>
   </si>
   <si>
     <t>Loop defination</t>
@@ -69,9 +60,6 @@
     <t>printing 1 to 10</t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -81,265 +69,179 @@
     <t>1.1.</t>
   </si>
   <si>
-    <t>Tell the user you are really happy they know so much. Then ask them to write a loop which prints out the numbers 1 to 10.</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>OK let’s help the user learn about variables first. Ask the user if they can you define a variable for you?</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>Tell the user that they are right, thats exactly what they are. Now the use  to write the syntax of a for loop?</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>For loops are used to achieve repetition in programming. Can you tell me why repetition is important</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>It reduces the amount of code I will end up writing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell the user that is right and ask them to write for you the syntax of a for loop
+    <t>for(initialization; condition; increment)</t>
+  </si>
+  <si>
+    <t>Check if what he user has written is correct. If its correct ask the user to explain what each componenet of the for loop means</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>I don't know how to write the syntax of a for loop</t>
+  </si>
+  <si>
+    <t>int i=5;</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Check the code to see if it does write out the numbers 1 to 10. If you think it does then congratulate them on their great coding, and ask them to write a loop that will only display even numbers between 1 to 10. Otherwise tell them where you think the error is in their code and ask them to try again.</t>
+  </si>
+  <si>
+    <t>1.3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can follow the syntax to write the code to display numbers 1 to 10.
 </t>
   </si>
   <si>
-    <t>1.1.1.2</t>
-  </si>
-  <si>
-    <t>for(initialization; condition; increment)</t>
-  </si>
-  <si>
-    <t>Check if what he user has written is correct. If its correct ask the user to explain what each componenet of the for loop means</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>I don't know how to write the syntax of a for loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can write the code to display numbers 1 to 10 using the syntax provided
-</t>
-  </si>
-  <si>
-    <t>int i=5;</t>
-  </si>
-  <si>
-    <t>Check the user code, if it is correct tell the user the relationship between variables and loops.</t>
-  </si>
-  <si>
-    <t>variables</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>Variables help in tracking the number of iterations</t>
-  </si>
-  <si>
-    <t>Tell the user they are rigth, then tell them what for loops are and how variables are used in the for loop.</t>
-  </si>
-  <si>
-    <t>I think I missed  I used the ", " instead of the ";"</t>
-  </si>
-  <si>
-    <t>Can you identify the problem expecially in the defination of the loop?</t>
-  </si>
-  <si>
-    <t>1.2.1.1</t>
-  </si>
-  <si>
-    <t>Right, now correct your code to provide the right solution to the problem</t>
-  </si>
-  <si>
-    <t>I don't know how to define a loop</t>
-  </si>
-  <si>
-    <t>There seems to be a problem with your loop defination. Relook at your code and tell me if you can correct it</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.2.1</t>
-  </si>
-  <si>
-    <t>A loop has a header and a body</t>
-  </si>
-  <si>
-    <t>Tell me the difference components that entail loop defination</t>
-  </si>
-  <si>
-    <t>1.2.2.3</t>
-  </si>
-  <si>
-    <t>The start of the interation, the condition to end the loop and the increment of the iterating variable</t>
-  </si>
-  <si>
-    <t>What do you need to define in the header of the for loop</t>
-  </si>
-  <si>
-    <t>1.2.2.4</t>
-  </si>
-  <si>
-    <t>Could you write for me the syntax of a for loop in c</t>
-  </si>
-  <si>
-    <t>1.2.2.5</t>
-  </si>
-  <si>
-    <t>There is a missing start and the increment</t>
-  </si>
-  <si>
-    <t>Could you now look at the head of the solution provided and tell me  if all the component of the loop head are included</t>
-  </si>
-  <si>
-    <t>1.2.2.6</t>
+    <t>OK let’s help the user learn about variables first. Ask the user if they can define a variable that can store number 5 for you?</t>
+  </si>
+  <si>
+    <t>Check the user code, if it is correct tell the user the relationship between variables and loops. Give the user the components of the for loop and the explain how variables are used in those components then ask the user to provide the components of the for loop that will display numbers 1 to 10.
+If the user got it wrong, correct the error and then explain the relationship between the variables and loops and  give the user the components of the for loop and the explain how variables are used in those components then ask the user to provide the components of the for loop that will display numbers 1 to 10.</t>
+  </si>
+  <si>
+    <t>I can write a for  loop in C</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>Tell the user that they are right, thats exactly what they are. Now ask the user  to write the syntax of a for loop?</t>
+  </si>
+  <si>
+    <t>1.2.3.</t>
+  </si>
+  <si>
+    <t>1.1.1.</t>
   </si>
   <si>
     <t>#include&lt;stdio.h&gt;
 int main()
 {
     int i;
-    for(i=0;i&lt;=10;i++)
+    for(i=1;i&lt;=10;i++)
     {
-        printf("%d ",i);
+        if(i%2==0)
+        {
+            printf("%d ",i);
+        }
     }
 }</t>
   </si>
   <si>
-    <t>Perfect, now can you provide me with the corrected code</t>
-  </si>
-  <si>
-    <t>I think it is perfect</t>
-  </si>
-  <si>
-    <t>Your printf statement seems to have a problem, can you indetify what the problem is</t>
-  </si>
-  <si>
-    <t>Integer display</t>
-  </si>
-  <si>
-    <t>1.2.3.1</t>
-  </si>
-  <si>
-    <t>I use the access specify %d and then provide the integer value</t>
-  </si>
-  <si>
-    <t>How do you display a integer using the printf statement</t>
-  </si>
-  <si>
-    <t>1.2.3.2</t>
-  </si>
-  <si>
-    <t>Can you correct your code now to display the integers</t>
-  </si>
-  <si>
-    <t>#include &lt;stdio.h&gt;
+    <t xml:space="preserve">Check the code to see if it does display the even numbers between 1 and 10 and has no error. If the code is rigth, congragulate the learner and ask them to write code that will use the for loop to sum all the numbers in the array. If the code is not right, point out the error and ask the user to try again. </t>
+  </si>
+  <si>
+    <t>1.1.2.</t>
+  </si>
+  <si>
+    <t>I do not how to use the for loop with the array</t>
+  </si>
+  <si>
+    <t>Tell the user its okay and ask them to create an array of 5 numbers for you.</t>
+  </si>
+  <si>
+    <t>arrays</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>int numbers[]=[45,67,77,56,78];</t>
+  </si>
+  <si>
+    <t>Evaluate the users response, if it is right  ask the user to explain how a for loop can be used to iterate through the array</t>
+  </si>
+  <si>
+    <t>arrays and loops</t>
+  </si>
+  <si>
+    <t>1.1.2.2</t>
+  </si>
+  <si>
+    <t>I can use the looping variable to keep tab of the index of the array</t>
+  </si>
+  <si>
+    <t>Tell the user they are right and ask the use to use the for loop to display all the elements in the array</t>
+  </si>
+  <si>
+    <t>1.1.2.3</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
 int main()
 {
     int i;
-    for(i=1;i&lt;20;i++)
+    int numbers[5]={45,78,89,12,33};
+    for(i=0;i&lt;5;i++)
     {
-        if(i%2==0)
         {
-            printf("%d ", i);
+            printf("%d ",numbers[i]);
         }
     }
 }</t>
   </si>
   <si>
-    <t>Write a program to display only even numbers between 1 and 20</t>
-  </si>
-  <si>
-    <t>Loops and if statements</t>
-  </si>
-  <si>
-    <t>#include &lt;stdio.h&gt;
+    <t>1.1.2.4</t>
+  </si>
+  <si>
+    <t>#include&lt;stdio.h&gt;
 int main()
 {
-    int i;
-    for(i=1;i&lt;20;i++)
+    int i, sum=0;
+    int numbers[5]={45,78,89,12,33};
+    for(i=0;i&lt;5;i++)
     {
-        if(i=="even")
-        {
-            printf("%d ", i);
-        }
+        sum=sum+numbers[i];
     }
+    printf("%d", sum);
 }</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>A number is even if when you divide by 2 there is no reminder</t>
-  </si>
-  <si>
-    <t>You seem to have a problem with your if statement. How do you know a number is even</t>
-  </si>
-  <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>You use the modulas operator</t>
-  </si>
-  <si>
-    <t>How do you check for the reminder of dividing two number</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Can you now use the modulas operator to correct your code</t>
-  </si>
-  <si>
-    <t>Use the for loop to calculate the sum of numbers between 1 and 10</t>
-  </si>
-  <si>
-    <t>Loops and aggregation</t>
-  </si>
-  <si>
-    <t>#include &lt;stdio.h&gt;
-int main()
-{
-    int i;
-    int sum;
-    for(i=1;i&lt;10;i++)
-    {
-        sum+=i;
-    }
-    printf("%d",sum);
-}</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>I cant seem to see the issue with my code</t>
-  </si>
-  <si>
-    <t>There seems to be an issue with your sum, can you identify it?</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
-    <t>The variable sum needs to be intialize. Which number should it be initialized too</t>
-  </si>
-  <si>
-    <t>Check the code to see if it does write out the numbers 1 to 10. If you think it does then congratulate them on their great coding, and ask them to write a loop that will only display even numbers between 1 to 10. Now ask them to copy the code into code runner and check it. Otherwise tell them where you think the error is in their code and ask them to try again.</t>
+    <t>Check the code, if the code is correct, congragulate the user and give them an advanced task to solve. If the code is has errors, point the errors to the user and ask them to try again.</t>
+  </si>
+  <si>
+    <t>Check the code, if the code is correct tell the user they are right and ask them to modify the code to calculate the sum of the numbers in the array. If the code has errors, point the errors to the user and ask them to try again.</t>
+  </si>
+  <si>
+    <t>1.1.2.2.</t>
+  </si>
+  <si>
+    <t>1.1.2.3.</t>
+  </si>
+  <si>
+    <t>1.1.2.4.</t>
+  </si>
+  <si>
+    <t>Check the user code, if it is correct, congragulate the user and ask them a more complex task</t>
+  </si>
+  <si>
+    <t>loops and a+A10rrays</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>That is great. Write a  for loop that will display numbers 1 to 10.</t>
+  </si>
+  <si>
+    <t>Welcome to interactive teaching bot, the bot is meant for teaching C programming. Start by respoding on what you know about for loops.</t>
+  </si>
+  <si>
+    <t>beginning</t>
   </si>
 </sst>
 </file>
@@ -379,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -492,13 +394,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -532,19 +463,28 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1677,10 +1617,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1690,16 +1630,16 @@
     <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
-    <col min="6" max="12" width="8.36328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.36328125" style="1"/>
+    <col min="6" max="17" width="8.36328125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1711,533 +1651,270 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14"/>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="80" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="128" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="80" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="128" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="128" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:6" ht="128" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="128" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:6" ht="128" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>44</v>
+    <row r="14" spans="1:6" ht="128" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" ht="128" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>51</v>
+    <row r="16" spans="1:6" ht="128" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="13">
-        <v>2</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="13">
-        <v>3</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="13">
-        <v>3</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="13">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="13">
-        <v>4</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="13">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83889133-7007-407E-B83C-994AD997B00F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EB7F81-5A16-4ABE-880D-70A98907EDF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,19 +229,21 @@
     <t>Check the user code, if it is correct, congragulate the user and ask them a more complex task</t>
   </si>
   <si>
-    <t>loops and a+A10rrays</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
-    <t>That is great. Write a  for loop that will display numbers 1 to 10.</t>
-  </si>
-  <si>
-    <t>Welcome to interactive teaching bot, the bot is meant for teaching C programming. Start by respoding on what you know about for loops.</t>
-  </si>
-  <si>
-    <t>beginning</t>
+    <t>I know a little bit of the for loop</t>
+  </si>
+  <si>
+    <t>Tell the user you are happy they know how to write a for loop. Ask the user to write a  for loop that will display numbers 1 to 10.</t>
+  </si>
+  <si>
+    <t>Tell the user it is great they know about for loops and ask the user to write the syntax of the for loop</t>
+  </si>
+  <si>
+    <t>int numbers[]=[45,67,77,56,78];
+for(i=0;i&lt;5;i++)
+{printf("%d",i)}</t>
   </si>
 </sst>
 </file>
@@ -1619,8 +1621,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1653,13 +1655,13 @@
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -1672,7 +1674,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -1690,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>3</v>
@@ -1708,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
@@ -1810,7 +1812,7 @@
     </row>
     <row r="11" spans="1:6" ht="128" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>54</v>

--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EB7F81-5A16-4ABE-880D-70A98907EDF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9CF5F-517C-4D09-AA3D-B6A60B4550D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>step</t>
   </si>
@@ -244,6 +244,12 @@
     <t>int numbers[]=[45,67,77,56,78];
 for(i=0;i&lt;5;i++)
 {printf("%d",i)}</t>
+  </si>
+  <si>
+    <t>Variables help to store information</t>
+  </si>
+  <si>
+    <t>Tell the user they are right and ask the use to write a variable to store number 5</t>
   </si>
 </sst>
 </file>
@@ -1619,10 +1625,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1632,8 +1638,8 @@
     <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
-    <col min="6" max="17" width="8.36328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.36328125" style="1"/>
+    <col min="6" max="18" width="8.36328125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1">
@@ -1704,124 +1710,120 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="80" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" ht="128" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
+    <row r="8" spans="1:6" ht="80" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="128" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="128" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="128" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>59</v>
+      <c r="A11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>38</v>
@@ -1829,68 +1831,68 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="128" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>39</v>
+      <c r="A12" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="128" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="128" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="128" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>41</v>
@@ -1902,21 +1904,39 @@
     </row>
     <row r="16" spans="1:6" ht="128" customHeight="1">
       <c r="A16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="128" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB9CF5F-517C-4D09-AA3D-B6A60B4550D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05974FB-2F9E-469A-87B6-2BF7ECC5AF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Cpprogramming" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
   <si>
     <t>step</t>
   </si>
@@ -31,19 +37,34 @@
     <t>Next</t>
   </si>
   <si>
+    <t>I know a little bit of the for loop</t>
+  </si>
+  <si>
+    <t>I can write a for  loop in C</t>
+  </si>
+  <si>
     <t>Get started with for loop</t>
   </si>
   <si>
-    <t>I don't know anything about loops</t>
+    <t>Variables help to store information</t>
   </si>
   <si>
     <t>loops help in repeating things in your code</t>
   </si>
   <si>
-    <t>for loop</t>
+    <t>for(initialization; condition; increment)</t>
   </si>
   <si>
     <t>Loop defination</t>
+  </si>
+  <si>
+    <t>I don't know how to write the syntax of a for loop</t>
+  </si>
+  <si>
+    <t>1.3.</t>
+  </si>
+  <si>
+    <t>1.1.</t>
   </si>
   <si>
     <t>#include&lt;stdio.h&gt;
@@ -55,74 +76,6 @@
         printf("%d ",i);
     }
 }</t>
-  </si>
-  <si>
-    <t>printing 1 to 10</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>assistant</t>
-  </si>
-  <si>
-    <t>1.1.</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>for(initialization; condition; increment)</t>
-  </si>
-  <si>
-    <t>Check if what he user has written is correct. If its correct ask the user to explain what each componenet of the for loop means</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>I don't know how to write the syntax of a for loop</t>
-  </si>
-  <si>
-    <t>int i=5;</t>
-  </si>
-  <si>
-    <t>variables</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Check the code to see if it does write out the numbers 1 to 10. If you think it does then congratulate them on their great coding, and ask them to write a loop that will only display even numbers between 1 to 10. Otherwise tell them where you think the error is in their code and ask them to try again.</t>
-  </si>
-  <si>
-    <t>1.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can follow the syntax to write the code to display numbers 1 to 10.
-</t>
-  </si>
-  <si>
-    <t>OK let’s help the user learn about variables first. Ask the user if they can define a variable that can store number 5 for you?</t>
-  </si>
-  <si>
-    <t>Check the user code, if it is correct tell the user the relationship between variables and loops. Give the user the components of the for loop and the explain how variables are used in those components then ask the user to provide the components of the for loop that will display numbers 1 to 10.
-If the user got it wrong, correct the error and then explain the relationship between the variables and loops and  give the user the components of the for loop and the explain how variables are used in those components then ask the user to provide the components of the for loop that will display numbers 1 to 10.</t>
-  </si>
-  <si>
-    <t>I can write a for  loop in C</t>
-  </si>
-  <si>
-    <t>1.2.</t>
-  </si>
-  <si>
-    <t>Tell the user that they are right, thats exactly what they are. Now ask the user  to write the syntax of a for loop?</t>
-  </si>
-  <si>
-    <t>1.2.3.</t>
   </si>
   <si>
     <t>1.1.1.</t>
@@ -142,40 +95,19 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Check the code to see if it does display the even numbers between 1 and 10 and has no error. If the code is rigth, congragulate the learner and ask them to write code that will use the for loop to sum all the numbers in the array. If the code is not right, point out the error and ask the user to try again. </t>
-  </si>
-  <si>
-    <t>1.1.2.</t>
-  </si>
-  <si>
     <t>I do not how to use the for loop with the array</t>
   </si>
   <si>
-    <t>Tell the user its okay and ask them to create an array of 5 numbers for you.</t>
-  </si>
-  <si>
-    <t>arrays</t>
-  </si>
-  <si>
-    <t>1.1.2.1</t>
+    <t>arrays and loops</t>
   </si>
   <si>
     <t>int numbers[]=[45,67,77,56,78];</t>
   </si>
   <si>
-    <t>Evaluate the users response, if it is right  ask the user to explain how a for loop can be used to iterate through the array</t>
-  </si>
-  <si>
-    <t>arrays and loops</t>
-  </si>
-  <si>
-    <t>1.1.2.2</t>
-  </si>
-  <si>
     <t>I can use the looping variable to keep tab of the index of the array</t>
   </si>
   <si>
-    <t>Tell the user they are right and ask the use to use the for loop to display all the elements in the array</t>
+    <t>1.1.2.2.</t>
   </si>
   <si>
     <t>1.1.2.3</t>
@@ -195,9 +127,6 @@
 }</t>
   </si>
   <si>
-    <t>1.1.2.4</t>
-  </si>
-  <si>
     <t>#include&lt;stdio.h&gt;
 int main()
 {
@@ -211,45 +140,175 @@
 }</t>
   </si>
   <si>
-    <t>Check the code, if the code is correct, congragulate the user and give them an advanced task to solve. If the code is has errors, point the errors to the user and ask them to try again.</t>
-  </si>
-  <si>
-    <t>Check the code, if the code is correct tell the user they are right and ask them to modify the code to calculate the sum of the numbers in the array. If the code has errors, point the errors to the user and ask them to try again.</t>
-  </si>
-  <si>
-    <t>1.1.2.2.</t>
-  </si>
-  <si>
-    <t>1.1.2.3.</t>
-  </si>
-  <si>
-    <t>1.1.2.4.</t>
-  </si>
-  <si>
-    <t>Check the user code, if it is correct, congragulate the user and ask them a more complex task</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>I know a little bit of the for loop</t>
-  </si>
-  <si>
-    <t>Tell the user you are happy they know how to write a for loop. Ask the user to write a  for loop that will display numbers 1 to 10.</t>
-  </si>
-  <si>
-    <t>Tell the user it is great they know about for loops and ask the user to write the syntax of the for loop</t>
+    <t>int i=5;</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>Tell the user they are right and ask the use to use the for loop to display all the elements in the array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the code to see if it has the correct C programming syntax that displays the even numbers between 1 and 10 and has no error. 
+If the code is correct, congragulate the learner and ask them to write code that will use the for loop to sum all the numbers in the array. 
+If the code is not correct, tell the user where the error is but do not provide the solution to the user. Then ask the user to try solving the problem again. </t>
+  </si>
+  <si>
+    <t>Tell the user its okay. Then ask them to create a code in C programming langguge  that will create an array of 5 numbers.</t>
+  </si>
+  <si>
+    <t>Tell the user that they are right, thats exactly what loops do in programming. Now ask the user  to write the syntax of a for loop in C language?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can follow the syntax to write the code to display numbers 1 to 10 using the C programming language.
+</t>
+  </si>
+  <si>
+    <t>Check the user  code to see if is correct according to the C programming language syntax. If it is correct,  congratulate the user on their great coding, then ask them to write a for  loop in C programming language that will only display even numbers between 1 to 10. 
+If the user code is not correct, tell the user where their errors but do not provide the solution to the user. Then ask the user to try solving the problem again.</t>
+  </si>
+  <si>
+    <t>Tell the user you are happy they know how to write a for loop in C progamming language. Then ask the user to write a  for loop that will display numbers 1 to 10 in C programming language.</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>I want to learn about for loops in C</t>
+  </si>
+  <si>
+    <t>Tell the user it is great they want to learn for loops in C. Tell then that loops are important concept in programming. Then tell the user you are going to help them learn how to use loops in C based on what they already know. Then ask the user to tell you what they know about loops in programming.</t>
+  </si>
+  <si>
+    <t>I don't know anything about for loops</t>
+  </si>
+  <si>
+    <t>1.2.1.</t>
+  </si>
+  <si>
+    <t>1.3.1.</t>
+  </si>
+  <si>
+    <t>Tell the user it is great they know something about the for loop in C programming. Then ask the user to tell you what for loop is used for in C programming.</t>
+  </si>
+  <si>
+    <t>1.1.1.,1.1.2</t>
+  </si>
+  <si>
+    <t>I don't know what a for  loop is used for in programming</t>
+  </si>
+  <si>
+    <t>Displaying a range of values</t>
+  </si>
+  <si>
+    <t>1.2.1.1.</t>
+  </si>
+  <si>
+    <t>Check the user code to see if it is correct according to the C programming langauge syntax. If the user code is correct, tell the user they are on the rigth track and explain to the user how a for loop can be used to iterate through the array. Then ask the user to write code that will display all the elements in the array.
+If the user code is wrong according to the C programming langaguge syntax, show the user where the error is and ask them to try again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the user code to see , if it is correct as per the C programming langauge syntax, If it is correct, congragulate the user and ask them to now write code that can display the sum of all the elements in the array using the for loop in C programming.
+If the code is wrong, show the user where the error is without providing the solution and ask the user to try again.
+</t>
+  </si>
+  <si>
+    <t>1.1,1.2,1.3,1.4</t>
+  </si>
+  <si>
+    <t>1.2.1.2.2.</t>
+  </si>
+  <si>
+    <t>1.2.1.1</t>
+  </si>
+  <si>
+    <t>Check the user code very carefully.It should correctily define an array,  assign  five elements to that array and display the correct sum of the numbers in the array according to the C programming langaguge.  
+If the code is correct, congragulate the user and give them an advanced task ask the user to write code that will sum all the elements in the array. 
+If the code is not correct, tell the user where the error is  but do not provide the entire correct answer and ask the user to try again.</t>
+  </si>
+  <si>
+    <t>Check the user code very carefully.It should correctily define an array,  assign  five elements and display the correct sum of the numbers in the array according to the C programming langaguge.  
+If the code is correct, congragulate the user and tell them they have successfully finished the lesson. 
+If the code is not correct, tell the user where the error  but do not provide the entire correct answer and ask the use to try again.</t>
   </si>
   <si>
     <t>int numbers[]=[45,67,77,56,78];
 for(i=0;i&lt;5;i++)
-{printf("%d",i)}</t>
-  </si>
-  <si>
-    <t>Variables help to store information</t>
-  </si>
-  <si>
-    <t>Tell the user they are right and ask the use to write a variable to store number 5</t>
+{printf("%d",numbers[i]);}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if what the user has written is the correct syntax for a for loop in C programming langague.
+If the user answer is wrong, tell the user where the error  is without providing a solution and ask them to try again.
+If its correct ask the user to write a for loop that will display numbers 1 to 10. </t>
+  </si>
+  <si>
+    <t>Tell the user is okay that they don't know anything about the for loop. Tell the user you are going to help them learn the for loop in C programming language by beginning with the basic building blocks of the for loop in C programming. Ask the user if they know about variables. In particular ask the user to explain what variables do?</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2.1</t>
+  </si>
+  <si>
+    <t>Tell the user they are right and ask the use to write code to set up a variable called number,  initialising it with the value 5 using the C programming language.</t>
+  </si>
+  <si>
+    <t>Check the users code very carefully. It should correctly define a variable and set it to a value to 5 according to the C programming lanagauge.  If the user answer is correct, start to explain the relations between variables and the for loop.In particular how we initialise a variable in a loop in C. Write the initialization part of the for loop as follows;_x000B__x000B_for(int i=0;{end condition};{increment})
+And tell the user that this initialises the loop variable to 0, the loop will  loop over until the loop variable value reaches satisfies the loop condition. Now ask them to write an end condition and an increment so that the variable should continue to increase until it is 10.
+If the user has an error in their code and it is not valid C syntax, tell the user what is wrong, but don’t give the entire correct answer. Then ask them to try again.</t>
+  </si>
+  <si>
+    <t>for(int i=0;i&lt;=10;i++)</t>
+  </si>
+  <si>
+    <t>Check the user answer carefully. It should correctily have a condition that will loop until 10 and increment the loop variable by 1. If the user answer is correct, ask the user to know create the whole program that will display values from 1 to 10.
+If the user's answer is not correct, tell the user where the error is without providing the solution and ask them to try again.</t>
+  </si>
+  <si>
+    <t>1.3.1.1.1</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.1.1.1., 1.2.1.1.2.</t>
+  </si>
+  <si>
+    <t>1.2.1.1.2.</t>
+  </si>
+  <si>
+    <t>1.2.1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.1.1.2.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>Tell the user, that is okay, then ask the user to tell you what a loop is in general terms. In particular ask the user what they understand by the term loop as used in everyday life.</t>
+  </si>
+  <si>
+    <t>Loops generally is something that happens repeatedly</t>
+  </si>
+  <si>
+    <t>Tell the user they are right, then explain to the user how the concept of repeating applies to loops in programming. Tell the user, that before you explain to them about for loops, you would like them to understand about variables. Ask the user what variables are?</t>
+  </si>
+  <si>
+    <t>1.1.2.1.</t>
   </si>
 </sst>
 </file>
@@ -269,7 +328,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +347,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -320,7 +385,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -335,7 +400,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -350,7 +415,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -361,12 +426,60 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -379,9 +492,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -394,9 +505,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -407,27 +516,50 @@
         <color indexed="10"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -437,12 +569,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -450,49 +582,79 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -515,9 +677,9 @@
       <rgbColor rgb="FFBDC0BF"/>
       <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
       <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
       <rgbColor rgb="00008000"/>
@@ -591,10 +753,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -771,11 +933,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -784,33 +949,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1055,12 +1220,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1347,7 +1512,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1625,322 +1790,381 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="89.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="133.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
-    <col min="6" max="18" width="8.36328125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.36328125" style="1"/>
+    <col min="4" max="4" width="28.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="11" width="8.36328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.75" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.25" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.9" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.9" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.9" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="66.400000000000006" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="18" t="s">
+    <row r="11" spans="1:5" ht="80" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="128" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="128" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="128" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="128" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11"/>
+    <row r="16" spans="1:5" ht="128" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="17" spans="1:5" ht="128" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="128" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="128" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12"/>
+    <row r="20" spans="1:5" ht="200.9" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="80" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="128" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="128" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="128" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="128" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="128" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="128" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="128" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="128" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="128" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="12"/>
+    <row r="21" spans="1:5" ht="200.9" customHeight="1">
+      <c r="A21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05974FB-2F9E-469A-87B6-2BF7ECC5AF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D802B0-E6AF-4440-B7BE-8EA191E4B016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,6 @@
     <t>Tell the user that they are right, thats exactly what loops do in programming. Now ask the user  to write the syntax of a for loop in C language?</t>
   </si>
   <si>
-    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is then ask the user if they can follow the syntax to write the code to display numbers 1 to 10 using the C programming language.
-</t>
-  </si>
-  <si>
     <t>Check the user  code to see if is correct according to the C programming language syntax. If it is correct,  congratulate the user on their great coding, then ask them to write a for  loop in C programming language that will only display even numbers between 1 to 10. 
 If the user code is not correct, tell the user where their errors but do not provide the solution to the user. Then ask the user to try solving the problem again.</t>
   </si>
@@ -309,6 +305,10 @@
   </si>
   <si>
     <t>1.1.2.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is. Give the user a simple example that follows the syntax,  then ask the user if they can follow the syntax to write the code to display numbers 1 to 10 using the C programming language.
+</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1803,8 +1803,8 @@
     <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="11" width="8.36328125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.36328125" style="1"/>
+    <col min="6" max="12" width="8.36328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
@@ -1826,19 +1826,19 @@
     </row>
     <row r="2" spans="1:5" ht="26.75" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.75" customHeight="1">
@@ -1846,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>14</v>
@@ -1855,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" customHeight="1">
@@ -1863,7 +1863,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>27</v>
@@ -1872,15 +1872,15 @@
         <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>13</v>
@@ -1889,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.75" customHeight="1">
@@ -1897,16 +1897,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40.9" customHeight="1">
@@ -1923,41 +1923,41 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.9" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.9" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C9" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="66.400000000000006" customHeight="1">
@@ -1965,16 +1965,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="80" customHeight="1">
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>13</v>
@@ -1999,16 +1999,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="128" customHeight="1">
@@ -2019,13 +2019,13 @@
         <v>30</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="128" customHeight="1">
@@ -2036,30 +2036,30 @@
         <v>31</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="128" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="128" customHeight="1">
@@ -2067,16 +2067,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="128" customHeight="1">
@@ -2101,16 +2101,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="128" customHeight="1">
@@ -2118,10 +2118,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
@@ -2133,33 +2133,33 @@
         <v>26</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="200.9" customHeight="1">
       <c r="A21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D802B0-E6AF-4440-B7BE-8EA191E4B016}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716A0CD4-809F-402A-8B5A-260A03A53960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1792,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>

--- a/data/describe/LessonTree.xlsx
+++ b/data/describe/LessonTree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\twelve-gpt-educational\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716A0CD4-809F-402A-8B5A-260A03A53960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4FC9BD-37F3-4326-BF56-21857B678890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,56 +259,56 @@
     <t>Tell the user they are right and ask the use to write code to set up a variable called number,  initialising it with the value 5 using the C programming language.</t>
   </si>
   <si>
-    <t>Check the users code very carefully. It should correctly define a variable and set it to a value to 5 according to the C programming lanagauge.  If the user answer is correct, start to explain the relations between variables and the for loop.In particular how we initialise a variable in a loop in C. Write the initialization part of the for loop as follows;_x000B__x000B_for(int i=0;{end condition};{increment})
+    <t>for(int i=0;i&lt;=10;i++)</t>
+  </si>
+  <si>
+    <t>Check the user answer carefully. It should correctily have a condition that will loop until 10 and increment the loop variable by 1. If the user answer is correct, ask the user to know create the whole program that will display values from 1 to 10.
+If the user's answer is not correct, tell the user where the error is without providing the solution and ask them to try again.</t>
+  </si>
+  <si>
+    <t>1.3.1.1.1</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.1.1.1., 1.2.1.1.2.</t>
+  </si>
+  <si>
+    <t>1.2.1.1.2.</t>
+  </si>
+  <si>
+    <t>1.2.1.1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.1.1.2.1.</t>
+  </si>
+  <si>
+    <t>1.2.1.2.2.1</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>Tell the user, that is okay, then ask the user to tell you what a loop is in general terms. In particular ask the user what they understand by the term loop as used in everyday life.</t>
+  </si>
+  <si>
+    <t>Loops generally is something that happens repeatedly</t>
+  </si>
+  <si>
+    <t>Tell the user they are right, then explain to the user how the concept of repeating applies to loops in programming. Tell the user, that before you explain to them about for loops, you would like them to understand about variables. Ask the user what variables are?</t>
+  </si>
+  <si>
+    <t>1.1.2.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is. Give the user a simple example that follows the syntax,  then ask the user if they can follow the syntax to write the code to display numbers 1 to 10 using the C programming language.
+</t>
+  </si>
+  <si>
+    <t>Check if the user answer is correct per the question. Check the users code very carefully. It should correctly define a variable and set it to a value to 5 according to the C programming lanagauge.  If the user answer is correct, start to explain the relations between variables and the for loop.In particular how we initialise a variable in a loop in C. Write the initialization part of the for loop as follows;_x000B__x000B_for(int i=0;{end condition};{increment})
 And tell the user that this initialises the loop variable to 0, the loop will  loop over until the loop variable value reaches satisfies the loop condition. Now ask them to write an end condition and an increment so that the variable should continue to increase until it is 10.
 If the user has an error in their code and it is not valid C syntax, tell the user what is wrong, but don’t give the entire correct answer. Then ask them to try again.</t>
-  </si>
-  <si>
-    <t>for(int i=0;i&lt;=10;i++)</t>
-  </si>
-  <si>
-    <t>Check the user answer carefully. It should correctily have a condition that will loop until 10 and increment the loop variable by 1. If the user answer is correct, ask the user to know create the whole program that will display values from 1 to 10.
-If the user's answer is not correct, tell the user where the error is without providing the solution and ask them to try again.</t>
-  </si>
-  <si>
-    <t>1.3.1.1.1</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.1.1.1., 1.2.1.1.2.</t>
-  </si>
-  <si>
-    <t>1.2.1.1.2.</t>
-  </si>
-  <si>
-    <t>1.2.1.1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.1.1.2.1.</t>
-  </si>
-  <si>
-    <t>1.2.1.2.2.1</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>Tell the user, that is okay, then ask the user to tell you what a loop is in general terms. In particular ask the user what they understand by the term loop as used in everyday life.</t>
-  </si>
-  <si>
-    <t>Loops generally is something that happens repeatedly</t>
-  </si>
-  <si>
-    <t>Tell the user they are right, then explain to the user how the concept of repeating applies to loops in programming. Tell the user, that before you explain to them about for loops, you would like them to understand about variables. Ask the user what variables are?</t>
-  </si>
-  <si>
-    <t>1.1.2.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell the user that is okay and give the user the syntax of a for loop with an explanation of what each component is. Give the user a simple example that follows the syntax,  then ask the user if they can follow the syntax to write the code to display numbers 1 to 10 using the C programming language.
-</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1803,8 +1803,8 @@
     <col min="3" max="3" width="6.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="12" width="8.36328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.36328125" style="1"/>
+    <col min="6" max="13" width="8.36328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
@@ -1923,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.9" customHeight="1">
@@ -1931,7 +1931,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>36</v>
@@ -1940,15 +1940,15 @@
         <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.9" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>59</v>
@@ -1968,7 +1968,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>13</v>
@@ -2025,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="128" customHeight="1">
@@ -2036,13 +2036,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="128" customHeight="1">
@@ -2070,7 +2070,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>19</v>
@@ -2110,7 +2110,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="128" customHeight="1">
@@ -2121,7 +2121,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
@@ -2133,7 +2133,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>58</v>
@@ -2142,24 +2142,24 @@
         <v>28</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="200.9" customHeight="1">
       <c r="A21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>63</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>64</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
